--- a/Schéma/trottinette_telemetrie/Project Outputs for trottinette_telemetrie/Sources/REV 1.00 (2025-02-18)/04 - ASSEMBLY/trottinette_telemetrie_BOM REV 1.00.xlsx
+++ b/Schéma/trottinette_telemetrie/Project Outputs for trottinette_telemetrie/Sources/REV 1.00 (2025-02-18)/04 - ASSEMBLY/trottinette_telemetrie_BOM REV 1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyam\AppData\Local\TempReleases\Snapshot\1\Sources\REV 1.00 (2025-02-18)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A689EABF-5B42-4DFD-8BE1-19A7D6DACECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D26FF48-0125-4950-8B50-A96CE9623E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>2/18/2025</t>
   </si>
   <si>
-    <t>9:52 AM</t>
+    <t>10:32 AM</t>
   </si>
   <si>
     <t>None</t>
